--- a/va_facility_data_2025-02-20/Sy Kaplan VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sy%20Kaplan%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sy Kaplan VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sy%20Kaplan%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7416b4dae5c049e0a9cd2ba8b9c7aad7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R71743eb5e2fb4e32bd748d38e090c5d5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R71ef47c3004d455bbc1d10dffddb53dd"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbbbde49fc8524e5f935f9c2d07aab983"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2b33f3aba5c3455a9ca7f9f248ba0285"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R11447b223f0747d28d09b7efc8c85b12"/>
   </x:sheets>
 </x:workbook>
 </file>
